--- a/FMCG_Sales_Dashboard.xlsx
+++ b/FMCG_Sales_Dashboard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr updateLinks="always" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22CF36F0-3E6D-4822-BCF3-983294019C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108E972A-CF7E-419A-81F0-AF2A481779AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -371,11 +371,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -390,30 +470,15 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,14 +504,116 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -8034,13 +8201,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1781175</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8075,13 +8242,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8116,13 +8283,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8157,13 +8324,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8198,13 +8365,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10510,7 +10677,7 @@
     <dataField name="Sum of Sales Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="10">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
@@ -11419,7 +11586,7 @@
     <dataField name="Sum of Sales Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="9">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1" selected="0">
@@ -11567,7 +11734,7 @@
     <dataField name="Sum of Sales Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12301,24 +12468,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19122AF8-7FDB-48E7-8568-9973321A4169}" name="Table1" displayName="Table1" ref="A1:H100" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19122AF8-7FDB-48E7-8568-9973321A4169}" name="Table1" displayName="Table1" ref="A1:H100" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:H100" xr:uid="{19122AF8-7FDB-48E7-8568-9973321A4169}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H100">
     <sortCondition ref="A2:A100"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{436AEDE4-0D55-4561-9C9D-52BC5AFCEACF}" name="Date" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{61614D44-F4DF-41D7-ABB4-56FCBB5D31BC}" name="Month" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{436AEDE4-0D55-4561-9C9D-52BC5AFCEACF}" name="Date" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{61614D44-F4DF-41D7-ABB4-56FCBB5D31BC}" name="Month" dataDxfId="5">
       <calculatedColumnFormula>TEXT(A2,"mmm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{1AA4F844-47AD-4046-AD1F-E563AFAD8BA7}" name="Region"/>
     <tableColumn id="3" xr3:uid="{ACDCD128-5DC1-4368-8CAD-0176DEEE3F5D}" name="Product Category"/>
     <tableColumn id="4" xr3:uid="{D25928C4-28FA-47B6-A8D1-9919199B6DE1}" name="Product Name"/>
-    <tableColumn id="5" xr3:uid="{2B257A7F-4CB7-4496-BBC7-85C877ACD2CB}" name="Sales Amount" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{EE75BE91-11AF-4434-8AEA-3B16BDE0BA45}" name="Units Sold" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{2B257A7F-4CB7-4496-BBC7-85C877ACD2CB}" name="Sales Amount" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{EE75BE91-11AF-4434-8AEA-3B16BDE0BA45}" name="Units Sold" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{19D0B381-8F86-4EAA-80F3-149EAD3CEF43}" name="Sales Rep"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74434C78-39BD-43BF-BC2F-6BBC1A46EA58}" name="Table2" displayName="Table2" ref="G16:H28" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="G16:H28" xr:uid="{74434C78-39BD-43BF-BC2F-6BBC1A46EA58}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CD4F4CF1-CC96-4A88-9EFB-C673F56F32C7}" name="Product Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D223E0FE-3220-4E03-B810-9885885530A3}" name="Sum Of Sales Amount" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -15367,8 +15545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581F7EDE-E37B-4FEC-98B9-A4840CB9955B}">
   <dimension ref="A3:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="F24" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15926,7 +16104,7 @@
       <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J21" t="s">
@@ -15943,7 +16121,7 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>302850</v>
       </c>
       <c r="D22" t="s">
@@ -16162,21 +16340,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C2:X45"/>
+  <dimension ref="B2:X68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="2.5703125" customWidth="1"/>
     <col min="10" max="10" width="0.85546875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
@@ -16187,347 +16365,1767 @@
     <col min="16" max="16" width="18.28515625" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="24" max="24" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24" ht="15" customHeight="1">
-      <c r="C2" s="31" t="s">
+    <row r="2" spans="2:24">
+      <c r="B2" s="24"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+    </row>
+    <row r="3" spans="2:24" ht="15" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="3:24" ht="15" customHeight="1">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="12"/>
-    </row>
-    <row r="4" spans="3:24" ht="12" customHeight="1">
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="12"/>
-    </row>
-    <row r="5" spans="3:24">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-    </row>
-    <row r="6" spans="3:24">
-      <c r="C6" s="13" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="28"/>
+    </row>
+    <row r="4" spans="2:24" ht="15" customHeight="1">
+      <c r="B4" s="26"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="28"/>
+    </row>
+    <row r="5" spans="2:24" ht="12" customHeight="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="28"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="26"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="28"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="26"/>
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="13" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="3:24">
-      <c r="C7" s="23">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32"/>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="26"/>
+      <c r="C8" s="16">
         <f>SUM(RawData!F2:F101)</f>
         <v>982300</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="25" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="28">
+      <c r="F8" s="30"/>
+      <c r="G8" s="21">
         <f>SUM(RawData!G2:G101)</f>
         <v>38715</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="3:24">
-      <c r="C8" s="23"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="3:24" ht="18.75" customHeight="1">
-      <c r="C9" s="24"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="3:24">
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="3:24">
-      <c r="D11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="3:24">
-      <c r="D12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="15" spans="3:24" ht="18.75" customHeight="1">
-      <c r="G15" s="21" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="26"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="32"/>
+    </row>
+    <row r="10" spans="2:24" ht="18.75" customHeight="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="26"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="32"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="26"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="32"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="26"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="32"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="32"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="32"/>
+    </row>
+    <row r="16" spans="2:24" ht="18.75" customHeight="1">
+      <c r="B16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H16" s="34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="3:24">
-      <c r="G16" s="19" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="32"/>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H17" s="13">
         <v>130850</v>
       </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="G17" s="19" t="s">
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="32"/>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" s="26"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H18" s="13">
         <v>119100</v>
       </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="G18" s="19" t="s">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="32"/>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="B19" s="26"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H19" s="13">
         <v>104600</v>
       </c>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="G19" s="19" t="s">
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="32"/>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" s="26"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H20" s="13">
         <v>95300</v>
       </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="G20" s="19" t="s">
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="32"/>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" s="26"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H21" s="13">
         <v>87850</v>
       </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="G21" s="19" t="s">
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="32"/>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="26"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H22" s="13">
         <v>82600</v>
       </c>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="G22" s="19" t="s">
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="32"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="26"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H23" s="13">
         <v>79700</v>
       </c>
-    </row>
-    <row r="23" spans="6:8">
-      <c r="G23" s="19" t="s">
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="32"/>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="B24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H24" s="13">
         <v>68500</v>
       </c>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="G24" s="19" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="32"/>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="B25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H25" s="13">
         <v>67300</v>
       </c>
-    </row>
-    <row r="25" spans="6:8">
-      <c r="G25" s="19" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="32"/>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26" s="26"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H26" s="13">
         <v>54000</v>
       </c>
-    </row>
-    <row r="26" spans="6:8">
-      <c r="G26" s="19" t="s">
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="32"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" s="26"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H27" s="13">
         <v>52900</v>
       </c>
-    </row>
-    <row r="27" spans="6:8">
-      <c r="G27" s="19" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="32"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="B28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H28" s="13">
         <v>39600</v>
       </c>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="F31" s="16" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="32"/>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="26"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="32"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" s="26"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="32"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="26"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="32"/>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="B32" s="26"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="6:7">
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="6:7">
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="32"/>
+    </row>
+    <row r="33" spans="2:24">
+      <c r="B33" s="26"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="32"/>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" s="26"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="6:7">
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="6:7">
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="6:7">
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="6:7">
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="6:7">
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="6:7">
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="6:7">
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="6:7">
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="6:7">
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="32"/>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" s="26"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="32"/>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="26"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="32"/>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="B37" s="26"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="32"/>
+    </row>
+    <row r="38" spans="2:24">
+      <c r="B38" s="26"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="32"/>
+    </row>
+    <row r="39" spans="2:24">
+      <c r="B39" s="26"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="32"/>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="B40" s="26"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="32"/>
+    </row>
+    <row r="41" spans="2:24">
+      <c r="B41" s="26"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="32"/>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="B42" s="26"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="32"/>
+    </row>
+    <row r="43" spans="2:24">
+      <c r="B43" s="26"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="32"/>
+    </row>
+    <row r="44" spans="2:24">
+      <c r="B44" s="26"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="32"/>
+    </row>
+    <row r="45" spans="2:24">
+      <c r="B45" s="26"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="32"/>
+    </row>
+    <row r="46" spans="2:24">
+      <c r="B46" s="26"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="32"/>
+    </row>
+    <row r="47" spans="2:24">
+      <c r="B47" s="26"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="32"/>
+    </row>
+    <row r="48" spans="2:24">
+      <c r="B48" s="26"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="32"/>
+    </row>
+    <row r="49" spans="2:24">
+      <c r="B49" s="26"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="2:24">
+      <c r="B50" s="26"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="2:24">
+      <c r="B51" s="26"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="2:24">
+      <c r="B52" s="26"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="2:24">
+      <c r="B53" s="26"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="2:24">
+      <c r="B54" s="26"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="2:24">
+      <c r="B55" s="26"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="B56" s="26"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="32"/>
+    </row>
+    <row r="57" spans="2:24">
+      <c r="B57" s="26"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="32"/>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="B58" s="26"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="32"/>
+    </row>
+    <row r="59" spans="2:24">
+      <c r="B59" s="26"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="32"/>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="B60" s="26"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="32"/>
+    </row>
+    <row r="61" spans="2:24">
+      <c r="B61" s="26"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="32"/>
+    </row>
+    <row r="62" spans="2:24">
+      <c r="B62" s="26"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="32"/>
+    </row>
+    <row r="63" spans="2:24">
+      <c r="B63" s="26"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="32"/>
+    </row>
+    <row r="64" spans="2:24">
+      <c r="B64" s="26"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="32"/>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="B65" s="26"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="32"/>
+    </row>
+    <row r="66" spans="2:24">
+      <c r="B66" s="26"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="32"/>
+    </row>
+    <row r="67" spans="2:24">
+      <c r="B67" s="26"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="31"/>
+      <c r="X67" s="32"/>
+    </row>
+    <row r="68" spans="2:24">
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="C2:W4"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C3:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape"/>
+  <pageSetup paperSize="13" scale="95" orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>